--- a/data/topcompanies_financial_statment.xlsx
+++ b/data/topcompanies_financial_statment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeetA\Desktop\UW\Git\CSE412_Final_Project\sp500-interest-analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeetA\Desktop\UW\Git\CSE412_Final_Project\college-rate-of-return\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711930F-45EE-4688-B9D2-FB928DA36DC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B0E0E-7CC2-41CA-AEA8-01A8D5F8905D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BF4F32F-74C7-45FB-9778-DA28AEA73905}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Netflix</t>
+  </si>
+  <si>
+    <t>Total Liabilities (in million of USD)</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C312FD96-5AA4-494B-8589-645482C08B99}">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,9 +463,10 @@
     <col min="6" max="6" width="34.42578125" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -487,8 +491,11 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -513,8 +520,11 @@
       <c r="H3">
         <v>337158</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>267980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -539,8 +549,11 @@
       <c r="H4">
         <v>354054</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>287830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -565,8 +578,11 @@
       <c r="H5">
         <v>323888</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>258549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -591,8 +607,11 @@
       <c r="H6">
         <v>317344</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>245062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -617,8 +636,11 @@
       <c r="H7">
         <v>320400</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>241975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -643,8 +665,11 @@
       <c r="H8">
         <v>323077</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>219757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -669,8 +694,11 @@
       <c r="H9">
         <v>321195</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>227791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -695,8 +723,11 @@
       <c r="H10">
         <v>282179</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>199404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -721,8 +752,11 @@
       <c r="H11">
         <v>258314</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>184586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -747,8 +781,11 @@
       <c r="H12">
         <v>221238</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>155966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -773,8 +810,11 @@
       <c r="H13">
         <v>52972</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>29108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -799,8 +839,11 @@
       <c r="H14">
         <v>52148</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>29073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -825,8 +868,11 @@
       <c r="H15">
         <v>45691</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>28799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -851,8 +897,11 @@
       <c r="H16">
         <v>38135</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>27411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -877,8 +926,11 @@
       <c r="H17">
         <v>37250</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>27210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -903,8 +955,11 @@
       <c r="H18">
         <v>28791</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>11898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -929,8 +984,11 @@
       <c r="H19">
         <v>26881</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>11547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -955,8 +1013,11 @@
       <c r="H20">
         <v>25180</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>11266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -981,8 +1042,11 @@
       <c r="H21">
         <v>23254</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>10155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1007,8 +1071,11 @@
       <c r="H22">
         <v>17315</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1033,8 +1100,11 @@
       <c r="H23">
         <v>40123</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>27238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1059,8 +1129,11 @@
       <c r="H24">
         <v>39280</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>28215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1085,8 +1158,11 @@
       <c r="H25">
         <v>38622</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>28289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1111,8 +1187,11 @@
       <c r="H26">
         <v>37175</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>27840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1136,6 +1215,9 @@
       </c>
       <c r="H27">
         <v>35059</v>
+      </c>
+      <c r="I27">
+        <v>26650</v>
       </c>
     </row>
   </sheetData>
